--- a/DATA/JADWAL PIKET CT.xlsx
+++ b/DATA/JADWAL PIKET CT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="110">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -82,6 +82,9 @@
     <t>HERI</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
     <t>1/8/2023</t>
   </si>
   <si>
@@ -164,6 +167,183 @@
   </si>
   <si>
     <t>1/31/2023</t>
+  </si>
+  <si>
+    <t>2/1/2023</t>
+  </si>
+  <si>
+    <t>2/2/2023</t>
+  </si>
+  <si>
+    <t>2/3/2023</t>
+  </si>
+  <si>
+    <t>2/4/2023</t>
+  </si>
+  <si>
+    <t>2/5/2023</t>
+  </si>
+  <si>
+    <t>2/6/2023</t>
+  </si>
+  <si>
+    <t>2/7/2023</t>
+  </si>
+  <si>
+    <t>2/8/2023</t>
+  </si>
+  <si>
+    <t>2/9/2023</t>
+  </si>
+  <si>
+    <t>2/10/2023</t>
+  </si>
+  <si>
+    <t>2/11/2023</t>
+  </si>
+  <si>
+    <t>2/12/2023</t>
+  </si>
+  <si>
+    <t>2/13/2023</t>
+  </si>
+  <si>
+    <t>2/14/2023</t>
+  </si>
+  <si>
+    <t>2/15/2023</t>
+  </si>
+  <si>
+    <t>2/16/2023</t>
+  </si>
+  <si>
+    <t>2/17/2023</t>
+  </si>
+  <si>
+    <t>2/18/2023</t>
+  </si>
+  <si>
+    <t>2/19/2023</t>
+  </si>
+  <si>
+    <t>2/20/2023</t>
+  </si>
+  <si>
+    <t>2/21/2023</t>
+  </si>
+  <si>
+    <t>2/22/2023</t>
+  </si>
+  <si>
+    <t>2/23/2023</t>
+  </si>
+  <si>
+    <t>2/24/2023</t>
+  </si>
+  <si>
+    <t>2/25/2023</t>
+  </si>
+  <si>
+    <t>2/26/2023</t>
+  </si>
+  <si>
+    <t>2/27/2023</t>
+  </si>
+  <si>
+    <t>2/28/2023</t>
+  </si>
+  <si>
+    <t>3/1/2023</t>
+  </si>
+  <si>
+    <t>3/2/2023</t>
+  </si>
+  <si>
+    <t>3/3/2023</t>
+  </si>
+  <si>
+    <t>3/4/2023</t>
+  </si>
+  <si>
+    <t>3/5/2023</t>
+  </si>
+  <si>
+    <t>3/6/2023</t>
+  </si>
+  <si>
+    <t>3/7/2023</t>
+  </si>
+  <si>
+    <t>3/8/2023</t>
+  </si>
+  <si>
+    <t>3/9/2023</t>
+  </si>
+  <si>
+    <t>3/10/2023</t>
+  </si>
+  <si>
+    <t>3/11/2023</t>
+  </si>
+  <si>
+    <t>3/12/2023</t>
+  </si>
+  <si>
+    <t>3/13/2023</t>
+  </si>
+  <si>
+    <t>3/14/2023</t>
+  </si>
+  <si>
+    <t>3/15/2023</t>
+  </si>
+  <si>
+    <t>3/16/2023</t>
+  </si>
+  <si>
+    <t>3/17/2023</t>
+  </si>
+  <si>
+    <t>3/18/2023</t>
+  </si>
+  <si>
+    <t>3/19/2023</t>
+  </si>
+  <si>
+    <t>3/20/2023</t>
+  </si>
+  <si>
+    <t>3/21/2023</t>
+  </si>
+  <si>
+    <t>3/22/2023</t>
+  </si>
+  <si>
+    <t>3/23/2023</t>
+  </si>
+  <si>
+    <t>3/24/2023</t>
+  </si>
+  <si>
+    <t>3/25/2023</t>
+  </si>
+  <si>
+    <t>3/26/2023</t>
+  </si>
+  <si>
+    <t>3/27/2023</t>
+  </si>
+  <si>
+    <t>3/28/2023</t>
+  </si>
+  <si>
+    <t>3/29/2023</t>
+  </si>
+  <si>
+    <t>3/30/2023</t>
+  </si>
+  <si>
+    <t>3/31/2023</t>
   </si>
 </sst>
 </file>
@@ -171,9 +351,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -187,81 +367,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -277,15 +382,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,13 +412,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,6 +426,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -322,8 +441,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,85 +518,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,91 +680,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,35 +714,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,31 +755,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,12 +774,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,130 +832,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -783,10 +963,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1108,32 +1288,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10.2857142857143" style="1"/>
-    <col min="2" max="2" width="9.28571428571429" style="1"/>
-    <col min="3" max="3" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="9.28571428571429" style="2"/>
+    <col min="3" max="3" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1144,7 +1324,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -1155,7 +1335,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -1166,7 +1346,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
@@ -1177,7 +1357,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
@@ -1188,7 +1368,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -1198,8 +1378,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
@@ -1208,21 +1388,27 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
+      <c r="A10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1232,30 +1418,30 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
+      <c r="A11" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
+      <c r="A13" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1265,8 +1451,8 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
+      <c r="A14" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1275,20 +1461,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1296,10 +1485,13 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
+      <c r="A17" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1309,8 +1501,8 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
+      <c r="A18" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1320,8 +1512,8 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
+      <c r="A19" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1331,8 +1523,8 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
+      <c r="A20" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1342,19 +1534,19 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
+      <c r="A21" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>39</v>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1362,10 +1554,13 @@
       <c r="C22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>40</v>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -1373,21 +1568,24 @@
       <c r="C23" t="s">
         <v>14</v>
       </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>41</v>
+      <c r="A24" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>42</v>
+      <c r="A25" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1397,8 +1595,8 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>43</v>
+      <c r="A26" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1408,8 +1606,8 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>44</v>
+      <c r="A27" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -1419,8 +1617,8 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>45</v>
+      <c r="A28" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -1429,9 +1627,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>46</v>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -1439,10 +1637,13 @@
       <c r="C29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>47</v>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1450,10 +1651,13 @@
       <c r="C30" t="s">
         <v>4</v>
       </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>48</v>
+      <c r="A31" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -1463,21 +1667,718 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>49</v>
+      <c r="A32" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:A32" twoDigitTextYear="1"/>
+    <ignoredError sqref="A33:A91 A1:A32" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DATA/JADWAL PIKET CT.xlsx
+++ b/DATA/JADWAL PIKET CT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="111">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>3/1/2023</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>3/2/2023</t>
@@ -351,10 +354,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -365,17 +368,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,16 +420,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -420,6 +453,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,7 +482,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -458,25 +498,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -486,28 +511,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -518,187 +521,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,11 +715,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,6 +776,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,57 +808,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,7 +817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,130 +835,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1290,8 +1293,8 @@
   <sheetPr/>
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1704,10 +1707,10 @@
         <v>53</v>
       </c>
       <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
         <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1715,10 +1718,10 @@
         <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -1729,10 +1732,10 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -1743,10 +1746,10 @@
         <v>56</v>
       </c>
       <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
         <v>11</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1754,10 +1757,10 @@
         <v>57</v>
       </c>
       <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
         <v>14</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1765,10 +1768,10 @@
         <v>58</v>
       </c>
       <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
         <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1776,10 +1779,10 @@
         <v>59</v>
       </c>
       <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
         <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1787,10 +1790,10 @@
         <v>60</v>
       </c>
       <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
         <v>21</v>
-      </c>
-      <c r="C42" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1798,10 +1801,10 @@
         <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
         <v>22</v>
@@ -1812,10 +1815,10 @@
         <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -1848,10 +1851,10 @@
         <v>65</v>
       </c>
       <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
         <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1859,10 +1862,10 @@
         <v>66</v>
       </c>
       <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
         <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1870,10 +1873,10 @@
         <v>67</v>
       </c>
       <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
         <v>13</v>
-      </c>
-      <c r="C49" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1881,10 +1884,10 @@
         <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
@@ -1895,10 +1898,10 @@
         <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -1909,10 +1912,10 @@
         <v>70</v>
       </c>
       <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
         <v>16</v>
-      </c>
-      <c r="C52" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1920,10 +1923,10 @@
         <v>71</v>
       </c>
       <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
         <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1931,10 +1934,10 @@
         <v>72</v>
       </c>
       <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
         <v>20</v>
-      </c>
-      <c r="C54" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1978,10 +1981,10 @@
         <v>76</v>
       </c>
       <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
         <v>4</v>
-      </c>
-      <c r="C58" t="s">
-        <v>5</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
@@ -1992,10 +1995,10 @@
         <v>77</v>
       </c>
       <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
         <v>8</v>
-      </c>
-      <c r="C59" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2003,10 +2006,10 @@
         <v>78</v>
       </c>
       <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
         <v>11</v>
-      </c>
-      <c r="C60" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2014,43 +2017,43 @@
         <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
@@ -2058,13 +2061,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D65" t="s">
         <v>22</v>
@@ -2072,68 +2075,68 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D71" t="s">
         <v>22</v>
@@ -2141,13 +2144,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D72" t="s">
         <v>22</v>
@@ -2155,68 +2158,68 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="D78" t="s">
         <v>22</v>
@@ -2224,13 +2227,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D79" t="s">
         <v>22</v>
@@ -2238,68 +2241,68 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D85" t="s">
         <v>22</v>
@@ -2307,13 +2310,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="D86" t="s">
         <v>22</v>
@@ -2321,64 +2324,64 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C87" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A33:A91 A1:A32" twoDigitTextYear="1"/>
+    <ignoredError sqref="A1:A32 A33:A91" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DATA/JADWAL PIKET CT.xlsx
+++ b/DATA/JADWAL PIKET CT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="112">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -256,64 +256,67 @@
     <t>3/1/2023</t>
   </si>
   <si>
+    <t>3/2/2023</t>
+  </si>
+  <si>
+    <t>AZIS</t>
+  </si>
+  <si>
+    <t>3/3/2023</t>
+  </si>
+  <si>
+    <t>3/4/2023</t>
+  </si>
+  <si>
+    <t>3/5/2023</t>
+  </si>
+  <si>
+    <t>3/6/2023</t>
+  </si>
+  <si>
+    <t>3/7/2023</t>
+  </si>
+  <si>
+    <t>3/8/2023</t>
+  </si>
+  <si>
+    <t>3/9/2023</t>
+  </si>
+  <si>
+    <t>3/10/2023</t>
+  </si>
+  <si>
+    <t>3/11/2023</t>
+  </si>
+  <si>
+    <t>3/12/2023</t>
+  </si>
+  <si>
+    <t>3/13/2023</t>
+  </si>
+  <si>
+    <t>3/14/2023</t>
+  </si>
+  <si>
+    <t>3/15/2023</t>
+  </si>
+  <si>
+    <t>3/16/2023</t>
+  </si>
+  <si>
+    <t>3/17/2023</t>
+  </si>
+  <si>
+    <t>3/18/2023</t>
+  </si>
+  <si>
+    <t>3/19/2023</t>
+  </si>
+  <si>
+    <t>3/20/2023</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>3/2/2023</t>
-  </si>
-  <si>
-    <t>3/3/2023</t>
-  </si>
-  <si>
-    <t>3/4/2023</t>
-  </si>
-  <si>
-    <t>3/5/2023</t>
-  </si>
-  <si>
-    <t>3/6/2023</t>
-  </si>
-  <si>
-    <t>3/7/2023</t>
-  </si>
-  <si>
-    <t>3/8/2023</t>
-  </si>
-  <si>
-    <t>3/9/2023</t>
-  </si>
-  <si>
-    <t>3/10/2023</t>
-  </si>
-  <si>
-    <t>3/11/2023</t>
-  </si>
-  <si>
-    <t>3/12/2023</t>
-  </si>
-  <si>
-    <t>3/13/2023</t>
-  </si>
-  <si>
-    <t>3/14/2023</t>
-  </si>
-  <si>
-    <t>3/15/2023</t>
-  </si>
-  <si>
-    <t>3/16/2023</t>
-  </si>
-  <si>
-    <t>3/17/2023</t>
-  </si>
-  <si>
-    <t>3/18/2023</t>
-  </si>
-  <si>
-    <t>3/19/2023</t>
-  </si>
-  <si>
-    <t>3/20/2023</t>
   </si>
   <si>
     <t>3/21/2023</t>
@@ -368,21 +371,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -391,8 +379,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,39 +402,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,21 +424,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -483,6 +434,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -498,10 +479,32 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -521,187 +524,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,52 +718,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,23 +751,58 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,148 +820,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1293,8 +1296,8 @@
   <sheetPr/>
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2017,21 +2020,21 @@
         <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
         <v>81</v>
       </c>
-      <c r="B62" t="s">
-        <v>80</v>
-      </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2039,10 +2042,10 @@
         <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2050,10 +2053,10 @@
         <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
@@ -2064,10 +2067,10 @@
         <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
         <v>22</v>
@@ -2078,10 +2081,10 @@
         <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2089,10 +2092,10 @@
         <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2100,10 +2103,10 @@
         <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2111,10 +2114,10 @@
         <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2122,10 +2125,10 @@
         <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2133,10 +2136,10 @@
         <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
         <v>22</v>
@@ -2147,10 +2150,10 @@
         <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
         <v>22</v>
@@ -2161,10 +2164,10 @@
         <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2172,10 +2175,10 @@
         <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2183,10 +2186,10 @@
         <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2194,10 +2197,10 @@
         <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2205,10 +2208,10 @@
         <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2216,10 +2219,10 @@
         <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
         <v>22</v>
@@ -2230,10 +2233,10 @@
         <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D79" t="s">
         <v>22</v>
@@ -2244,65 +2247,65 @@
         <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81" t="s">
         <v>100</v>
       </c>
-      <c r="B81" t="s">
-        <v>80</v>
-      </c>
       <c r="C81" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D85" t="s">
         <v>22</v>
@@ -2310,13 +2313,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D86" t="s">
         <v>22</v>
@@ -2324,64 +2327,64 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:A32 A33:A91" twoDigitTextYear="1"/>
+    <ignoredError sqref="A66:A69 A70:A91 A1:A32 A33:A65" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>